--- a/ig/nr-impr-narratif/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/nr-impr-narratif/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T08:49:43+00:00</t>
+    <t>2023-10-10T07:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
